--- a/eclipse-workspace/cnqaosautomationscript/src/main/java/com/cnqaos/testdata/logindata.xlsx
+++ b/eclipse-workspace/cnqaosautomationscript/src/main/java/com/cnqaos/testdata/logindata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -374,26 +374,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1000062</v>
+        <v>1000063</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1000061</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1111111</v>
-      </c>
-      <c r="B4">
-        <v>1234</v>
       </c>
     </row>
   </sheetData>
